--- a/ЛР2_категорії.xlsx
+++ b/ЛР2_категорії.xlsx
@@ -16,7 +16,7 @@
     <t>Тема</t>
   </si>
   <si>
-    <t>Визначення та дослідження структури новин волонтерської діяльності.</t>
+    <t>Визначення та дослідження структури новин спорту.</t>
   </si>
   <si>
     <t>Опис</t>
@@ -246,7 +246,7 @@
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
